--- a/umit_files/umit_obs.xlsx
+++ b/umit_files/umit_obs.xlsx
@@ -21,10 +21,12 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,11 +262,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1alrL6IApZ02UL-fUoy6bEgBFSW8HG7FI4BP28rRi1AU/edit?usp=sharing"",""УМИТЫ!A:Z"")"),"Общество")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1-jGtNh5eWmYPQTkx7iXYVfHH_S6ZXx4XwbQqzb6Yg4g/edit"",""УМИТЫ!A:Z"")"),"Общество")</f>
         <v>Общество</v>
       </c>
       <c r="B1" s="1"/>
@@ -5593,8 +5595,14 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
+      <c r="K77" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Юридические факты")</f>
+        <v>Юридические факты</v>
+      </c>
+      <c r="L77" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),576.0)</f>
+        <v>576</v>
+      </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>

--- a/umit_files/umit_obs.xlsx
+++ b/umit_files/umit_obs.xlsx
@@ -3289,8 +3289,14 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие законотворчества")</f>
+        <v>Понятие законотворчества</v>
+      </c>
+      <c r="B34" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
+        <v>33</v>
+      </c>
       <c r="C34" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Социализация и взросление")</f>
         <v>Социализация и взросление</v>
@@ -3365,8 +3371,14 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="A35" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Этапы законотворчества в РФ")</f>
+        <v>Этапы законотворчества в РФ</v>
+      </c>
+      <c r="B35" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
+      </c>
       <c r="C35" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Агенты, институты и факторы социализации")</f>
         <v>Агенты, институты и факторы социализации</v>
@@ -3435,8 +3447,14 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Права и обязанности учащихся в РФ")</f>
+        <v>Права и обязанности учащихся в РФ</v>
+      </c>
+      <c r="B36" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
+        <v>35</v>
+      </c>
       <c r="C36" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности подросткового возраста")</f>
         <v>Особенности подросткового возраста</v>

--- a/umit_files/umit_obs.xlsx
+++ b/umit_files/umit_obs.xlsx
@@ -1804,8 +1804,8 @@
         <v>915</v>
       </c>
       <c r="U16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие и его виды познания")</f>
-        <v>Понятие и его виды познания</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие познания")</f>
+        <v>Понятие познания</v>
       </c>
       <c r="V16" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1015.0)</f>
@@ -2890,12 +2890,12 @@
         <v>128</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие и виды социальных институтов")</f>
-        <v>Понятие и виды социальных институтов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Люмпены")</f>
+        <v>Люмпены</v>
       </c>
       <c r="F29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),228.0)</f>
-        <v>228</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),232.0)</f>
+        <v>232</v>
       </c>
       <c r="G29" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тоталитарный политический режим")</f>
@@ -2978,12 +2978,12 @@
         <v>129</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функции социальных институтов")</f>
-        <v>Функции социальных институтов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Маргиналы")</f>
+        <v>Маргиналы</v>
       </c>
       <c r="F30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),229.0)</f>
-        <v>229</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),233.0)</f>
+        <v>233</v>
       </c>
       <c r="G30" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правовое государство")</f>
@@ -3060,12 +3060,12 @@
         <v>130</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дисфункции социальных институтов")</f>
-        <v>Дисфункции социальных институтов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Конформное поведение")</f>
+        <v>Конформное поведение</v>
       </c>
       <c r="F31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),230.0)</f>
-        <v>230</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
+        <v>235</v>
       </c>
       <c r="G31" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гражданское общество и его структура")</f>
@@ -3142,12 +3142,12 @@
         <v>131</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формальные и неформальные социальные институты")</f>
-        <v>Формальные и неформальные социальные институты</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Девиантное поведение")</f>
+        <v>Девиантное поведение</v>
       </c>
       <c r="F32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),231.0)</f>
-        <v>231</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
+        <v>236</v>
       </c>
       <c r="G32" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Предпосылки формирования гражданского общества")</f>
@@ -3224,12 +3224,12 @@
         <v>132</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Люмпены")</f>
-        <v>Люмпены</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Делинквентное поведение")</f>
+        <v>Делинквентное поведение</v>
       </c>
       <c r="F33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),232.0)</f>
-        <v>232</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
+        <v>237</v>
       </c>
       <c r="G33" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Политическая элита")</f>
@@ -3306,12 +3306,12 @@
         <v>133</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Маргиналы")</f>
-        <v>Маргиналы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Причины девиантного поведения (биологические, социальные, психологические)")</f>
+        <v>Причины девиантного поведения (биологические, социальные, психологические)</v>
       </c>
       <c r="F34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),233.0)</f>
-        <v>233</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),238.0)</f>
+        <v>238</v>
       </c>
       <c r="G34" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие политической идеологии")</f>
@@ -3388,12 +3388,12 @@
         <v>134</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Социальное поведение")</f>
-        <v>Социальное поведение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Положительная девиация")</f>
+        <v>Положительная девиация</v>
       </c>
       <c r="F35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
-        <v>234</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),239.0)</f>
+        <v>239</v>
       </c>
       <c r="G35" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основные виды идеологий")</f>
@@ -3437,8 +3437,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),834.0)</f>
         <v>834</v>
       </c>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
+      <c r="S35" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Права и обязанности учащихся в РФ")</f>
+        <v>Права и обязанности учащихся в РФ</v>
+      </c>
+      <c r="T35" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),934.0)</f>
+        <v>934</v>
+      </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
@@ -3464,12 +3470,12 @@
         <v>135</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Конформное поведение")</f>
-        <v>Конформное поведение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Типы девиантного поведения")</f>
+        <v>Типы девиантного поведения</v>
       </c>
       <c r="F36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
-        <v>235</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),240.0)</f>
+        <v>240</v>
       </c>
       <c r="G36" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие политических партий")</f>
@@ -3523,8 +3529,14 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие и виды социальных институтов")</f>
+        <v>Понятие и виды социальных институтов</v>
+      </c>
+      <c r="B37" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
+      </c>
       <c r="C37" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Межличностные отношения")</f>
         <v>Межличностные отношения</v>
@@ -3534,12 +3546,12 @@
         <v>136</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Девиантное поведение")</f>
-        <v>Девиантное поведение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Борьба с девиацией")</f>
+        <v>Борьба с девиацией</v>
       </c>
       <c r="F37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
-        <v>236</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.0)</f>
+        <v>241</v>
       </c>
       <c r="G37" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функции политических партий")</f>
@@ -3593,8 +3605,14 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="A38" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функции социальных институтов")</f>
+        <v>Функции социальных институтов</v>
+      </c>
+      <c r="B38" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
+        <v>37</v>
+      </c>
       <c r="C38" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Межличностные конфликты")</f>
         <v>Межличностные конфликты</v>
@@ -3604,12 +3622,12 @@
         <v>137</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Делинквентное поведение")</f>
-        <v>Делинквентное поведение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Социальный контроль")</f>
+        <v>Социальный контроль</v>
       </c>
       <c r="F38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
-        <v>237</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.0)</f>
+        <v>242</v>
       </c>
       <c r="G38" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кадровые и массовые политические партии")</f>
@@ -3663,8 +3681,14 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="A39" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дисфункции социальных институтов")</f>
+        <v>Дисфункции социальных институтов</v>
+      </c>
+      <c r="B39" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
+      </c>
       <c r="C39" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способы решения межличностных конфликтов")</f>
         <v>Способы решения межличностных конфликтов</v>
@@ -3674,12 +3698,12 @@
         <v>138</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Причины девиантного поведения (биологические, социальные, психологические)")</f>
-        <v>Причины девиантного поведения (биологические, социальные, психологические)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внешний социальный контроль")</f>
+        <v>Внешний социальный контроль</v>
       </c>
       <c r="F39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),238.0)</f>
-        <v>238</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),243.0)</f>
+        <v>243</v>
       </c>
       <c r="G39" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Структура политических партий")</f>
@@ -3733,8 +3757,14 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формальные и неформальные социальные институты")</f>
+        <v>Формальные и неформальные социальные институты</v>
+      </c>
+      <c r="B40" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
+        <v>39</v>
+      </c>
       <c r="C40" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Признаки творческой деятельности")</f>
         <v>Признаки творческой деятельности</v>
@@ -3744,12 +3774,12 @@
         <v>139</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Положительная девиация")</f>
-        <v>Положительная девиация</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внутренний социальный контроль")</f>
+        <v>Внутренний социальный контроль</v>
       </c>
       <c r="F40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),239.0)</f>
-        <v>239</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),244.0)</f>
+        <v>244</v>
       </c>
       <c r="G40" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правящие и оппозиционные партии")</f>
@@ -3814,12 +3844,12 @@
         <v>140</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Типы девиантного поведения")</f>
-        <v>Типы девиантного поведения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Совесть как механизм внутреннего социального контроля")</f>
+        <v>Совесть как механизм внутреннего социального контроля</v>
       </c>
       <c r="F41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),240.0)</f>
-        <v>240</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),245.0)</f>
+        <v>245</v>
       </c>
       <c r="G41" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие партийной системы")</f>
@@ -3884,12 +3914,12 @@
         <v>141</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Борьба с девиацией")</f>
-        <v>Борьба с девиацией</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формальный и неформальный социальный контроль")</f>
+        <v>Формальный и неформальный социальный контроль</v>
       </c>
       <c r="F42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.0)</f>
-        <v>241</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),246.0)</f>
+        <v>246</v>
       </c>
       <c r="G42" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Однопартийная, двухпартийная, многопартийная системы")</f>
@@ -3948,12 +3978,12 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Социальный контроль")</f>
-        <v>Социальный контроль</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Элементы социального контроля")</f>
+        <v>Элементы социального контроля</v>
       </c>
       <c r="F43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.0)</f>
-        <v>242</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247.0)</f>
+        <v>247</v>
       </c>
       <c r="G43" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Общественно-политические движения")</f>
@@ -4012,12 +4042,12 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внешний социальный контроль")</f>
-        <v>Внешний социальный контроль</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функции социального контроля")</f>
+        <v>Функции социального контроля</v>
       </c>
       <c r="F44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),243.0)</f>
-        <v>243</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
+        <v>248</v>
       </c>
       <c r="G44" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"СМИ как политический институт")</f>
@@ -4027,8 +4057,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
         <v>343</v>
       </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="I44" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Статус Конституции")</f>
+        <v>Статус Конституции</v>
+      </c>
+      <c r="J44" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),443.0)</f>
+        <v>443</v>
+      </c>
       <c r="K44" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Порядок приема на работу")</f>
         <v>Порядок приема на работу</v>
@@ -4070,12 +4106,12 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внутренний социальный контроль")</f>
-        <v>Внутренний социальный контроль</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие социальных норм")</f>
+        <v>Понятие социальных норм</v>
       </c>
       <c r="F45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),244.0)</f>
-        <v>244</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),249.0)</f>
+        <v>249</v>
       </c>
       <c r="G45" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Роль СМИ в политической системе")</f>
@@ -4128,12 +4164,12 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Совесть как механизм внутреннего социального контроля")</f>
-        <v>Совесть как механизм внутреннего социального контроля</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обычаи и традиции")</f>
+        <v>Обычаи и традиции</v>
       </c>
       <c r="F46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),245.0)</f>
-        <v>245</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
+        <v>250</v>
       </c>
       <c r="G46" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие избирательной компании")</f>
@@ -4180,12 +4216,12 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формальный и неформальный социальный контроль")</f>
-        <v>Формальный и неформальный социальный контроль</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Моральные нормы")</f>
+        <v>Моральные нормы</v>
       </c>
       <c r="F47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),246.0)</f>
-        <v>246</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),251.0)</f>
+        <v>251</v>
       </c>
       <c r="G47" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Избирательная система")</f>
@@ -4232,12 +4268,12 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Элементы социального контроля")</f>
-        <v>Элементы социального контроля</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правовые нормы")</f>
+        <v>Правовые нормы</v>
       </c>
       <c r="F48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247.0)</f>
-        <v>247</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),252.0)</f>
+        <v>252</v>
       </c>
       <c r="G48" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мажоритарная система (абсолютного большинства, относительного большинства)")</f>
@@ -4284,12 +4320,12 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функции социального контроля")</f>
-        <v>Функции социального контроля</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Корпоративные нормы")</f>
+        <v>Корпоративные нормы</v>
       </c>
       <c r="F49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
-        <v>248</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
+        <v>253</v>
       </c>
       <c r="G49" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пропорциональная избирательная система")</f>
@@ -4336,12 +4372,12 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие социальных норм")</f>
-        <v>Понятие социальных норм</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Религиозные нормы")</f>
+        <v>Религиозные нормы</v>
       </c>
       <c r="F50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),249.0)</f>
-        <v>249</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.0)</f>
+        <v>254</v>
       </c>
       <c r="G50" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смешанная избирательная система")</f>
@@ -4388,12 +4424,12 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обычаи и традиции")</f>
-        <v>Обычаи и традиции</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Политические нормы")</f>
+        <v>Политические нормы</v>
       </c>
       <c r="F51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
-        <v>250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),255.0)</f>
+        <v>255</v>
       </c>
       <c r="G51" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Политический процесс")</f>
@@ -4440,12 +4476,12 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Моральные нормы")</f>
-        <v>Моральные нормы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Этикет")</f>
+        <v>Этикет</v>
       </c>
       <c r="F52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),251.0)</f>
-        <v>251</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),256.0)</f>
+        <v>256</v>
       </c>
       <c r="G52" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие политического лидерства")</f>
@@ -4492,12 +4528,12 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правовые нормы")</f>
-        <v>Правовые нормы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эстетические нормы")</f>
+        <v>Эстетические нормы</v>
       </c>
       <c r="F53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),252.0)</f>
-        <v>252</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),257.0)</f>
+        <v>257</v>
       </c>
       <c r="G53" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функции политического лидера")</f>
@@ -4544,12 +4580,12 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Корпоративные нормы")</f>
-        <v>Корпоративные нормы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Признаки социальных норм")</f>
+        <v>Признаки социальных норм</v>
       </c>
       <c r="F54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
-        <v>253</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
+        <v>258</v>
       </c>
       <c r="G54" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Типы политического лидерства")</f>
@@ -4596,12 +4632,12 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Религиозные нормы")</f>
-        <v>Религиозные нормы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функции социальных норм")</f>
+        <v>Функции социальных норм</v>
       </c>
       <c r="F55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.0)</f>
-        <v>254</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
+        <v>259</v>
       </c>
       <c r="G55" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Легальность")</f>
@@ -4648,12 +4684,12 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Политические нормы")</f>
-        <v>Политические нормы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие социальных санкций")</f>
+        <v>Понятие социальных санкций</v>
       </c>
       <c r="F56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),255.0)</f>
-        <v>255</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
+        <v>260</v>
       </c>
       <c r="G56" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Легитимность и ее типы")</f>
@@ -4700,12 +4736,12 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Этикет")</f>
-        <v>Этикет</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формальные, неформальные, позитивные и негативные социальные санкции")</f>
+        <v>Формальные, неформальные, позитивные и негативные социальные санкции</v>
       </c>
       <c r="F57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),256.0)</f>
-        <v>256</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.0)</f>
+        <v>261</v>
       </c>
       <c r="G57" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Принцип разделения властей ")</f>
@@ -4752,12 +4788,12 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эстетические нормы")</f>
-        <v>Эстетические нормы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способы регулирования общественных отношений")</f>
+        <v>Способы регулирования общественных отношений</v>
       </c>
       <c r="F58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),257.0)</f>
-        <v>257</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
+        <v>262</v>
       </c>
       <c r="G58" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Политическая культура")</f>
@@ -4804,16 +4840,16 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Признаки социальных норм")</f>
-        <v>Признаки социальных норм</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие и виды социальных общностей")</f>
+        <v>Понятие и виды социальных общностей</v>
       </c>
       <c r="F59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
-        <v>258</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.0)</f>
+        <v>263</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Политическое участие")</f>
-        <v>Политическое участие</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Политическое участие. Формы политического участия")</f>
+        <v>Политическое участие. Формы политического участия</v>
       </c>
       <c r="H59" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),358.0)</f>
@@ -4856,12 +4892,12 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функции социальных норм")</f>
-        <v>Функции социальных норм</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие и признаки социальных групп")</f>
+        <v>Понятие и признаки социальных групп</v>
       </c>
       <c r="F60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
-        <v>259</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),264.0)</f>
+        <v>264</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -4902,12 +4938,12 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие социальных санкций")</f>
-        <v>Понятие социальных санкций</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Квазигруппа")</f>
+        <v>Квазигруппа</v>
       </c>
       <c r="F61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
-        <v>260</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.0)</f>
+        <v>265</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -4948,12 +4984,12 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формальные, неформальные, позитивные и негативные социальные санкции")</f>
-        <v>Формальные, неформальные, позитивные и негативные социальные санкции</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основные свойства квазигрупп")</f>
+        <v>Основные свойства квазигрупп</v>
       </c>
       <c r="F62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.0)</f>
-        <v>261</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.0)</f>
+        <v>266</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -4994,12 +5030,12 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способы регулирования общественных отношений")</f>
-        <v>Способы регулирования общественных отношений</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Виды социальных групп")</f>
+        <v>Виды социальных групп</v>
       </c>
       <c r="F63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
-        <v>262</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.0)</f>
+        <v>267</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -5040,12 +5076,12 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие и виды социальных общностей")</f>
-        <v>Понятие и виды социальных общностей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Молодежь")</f>
+        <v>Молодежь</v>
       </c>
       <c r="F64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.0)</f>
-        <v>263</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.0)</f>
+        <v>268</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -5086,12 +5122,12 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие и признаки социальных групп")</f>
-        <v>Понятие и признаки социальных групп</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности социального положения молодежи")</f>
+        <v>Особенности социального положения молодежи</v>
       </c>
       <c r="F65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),264.0)</f>
-        <v>264</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
+        <v>269</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -5132,12 +5168,12 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Квазигруппа")</f>
-        <v>Квазигруппа</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Социально-психологические качества молодежи")</f>
+        <v>Социально-психологические качества молодежи</v>
       </c>
       <c r="F66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.0)</f>
-        <v>265</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),270.0)</f>
+        <v>270</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -5178,12 +5214,12 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основные свойства квазигрупп")</f>
-        <v>Основные свойства квазигрупп</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Молодежная субкультура")</f>
+        <v>Молодежная субкультура</v>
       </c>
       <c r="F67" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.0)</f>
-        <v>266</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.0)</f>
+        <v>271</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -5224,12 +5260,12 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Виды социальных групп")</f>
-        <v>Виды социальных групп</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности молодежной субкультуры")</f>
+        <v>Особенности молодежной субкультуры</v>
       </c>
       <c r="F68" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.0)</f>
-        <v>267</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),272.0)</f>
+        <v>272</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -5270,12 +5306,12 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Молодежь")</f>
-        <v>Молодежь</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие этнической общности")</f>
+        <v>Понятие этнической общности</v>
       </c>
       <c r="F69" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.0)</f>
-        <v>268</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.0)</f>
+        <v>273</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -5316,24 +5352,24 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности социального положения молодежи")</f>
-        <v>Особенности социального положения молодежи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Исторические типы этнических общностей")</f>
+        <v>Исторические типы этнических общностей</v>
       </c>
       <c r="F70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
-        <v>269</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),274.0)</f>
+        <v>274</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Статус Конституции")</f>
-        <v>Статус Конституции</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уголовное право")</f>
+        <v>Уголовное право</v>
       </c>
       <c r="L70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),569.0)</f>
-        <v>569</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),570.0)</f>
+        <v>570</v>
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -5362,24 +5398,24 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Социально-психологические качества молодежи")</f>
-        <v>Социально-психологические качества молодежи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности нации как этноса")</f>
+        <v>Особенности нации как этноса</v>
       </c>
       <c r="F71" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),270.0)</f>
-        <v>270</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),275.0)</f>
+        <v>275</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уголовное право")</f>
-        <v>Уголовное право</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Административное право")</f>
+        <v>Административное право</v>
       </c>
       <c r="L71" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),570.0)</f>
-        <v>570</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),571.0)</f>
+        <v>571</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -5402,24 +5438,24 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Молодежная субкультура")</f>
-        <v>Молодежная субкультура</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Этническое самосознание")</f>
+        <v>Этническое самосознание</v>
       </c>
       <c r="F72" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.0)</f>
-        <v>271</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.0)</f>
+        <v>276</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Административное право")</f>
-        <v>Административное право</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Трудовое право")</f>
+        <v>Трудовое право</v>
       </c>
       <c r="L72" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),571.0)</f>
-        <v>571</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),572.0)</f>
+        <v>572</v>
       </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -5442,24 +5478,24 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности молодежной субкультуры")</f>
-        <v>Особенности молодежной субкультуры</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Межнациональные отношения")</f>
+        <v>Межнациональные отношения</v>
       </c>
       <c r="F73" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),272.0)</f>
-        <v>272</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
+        <v>277</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Трудовое право")</f>
-        <v>Трудовое право</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Прекращение брака")</f>
+        <v>Прекращение брака</v>
       </c>
       <c r="L73" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),572.0)</f>
-        <v>572</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),573.0)</f>
+        <v>573</v>
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -5482,24 +5518,24 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие этнической общности")</f>
-        <v>Понятие этнической общности</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Международная интеграция")</f>
+        <v>Международная интеграция</v>
       </c>
       <c r="F74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.0)</f>
-        <v>273</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
+        <v>278</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Прекращение брака")</f>
-        <v>Прекращение брака</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правонарушения и их виды")</f>
+        <v>Правонарушения и их виды</v>
       </c>
       <c r="L74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),573.0)</f>
-        <v>573</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),574.0)</f>
+        <v>574</v>
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
@@ -5522,24 +5558,24 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Исторические типы этнических общностей")</f>
-        <v>Исторические типы этнических общностей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Международная дифференциация")</f>
+        <v>Международная дифференциация</v>
       </c>
       <c r="F75" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),274.0)</f>
-        <v>274</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),279.0)</f>
+        <v>279</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правонарушения и их виды")</f>
-        <v>Правонарушения и их виды</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правоотношения и их состав")</f>
+        <v>Правоотношения и их состав</v>
       </c>
       <c r="L75" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),574.0)</f>
-        <v>574</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),575.0)</f>
+        <v>575</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -5562,24 +5598,24 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности нации как этноса")</f>
-        <v>Особенности нации как этноса</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Культурный плюрализм")</f>
+        <v>Культурный плюрализм</v>
       </c>
       <c r="F76" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),275.0)</f>
-        <v>275</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),280.0)</f>
+        <v>280</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правоотношения и их состав")</f>
-        <v>Правоотношения и их состав</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Юридические факты")</f>
+        <v>Юридические факты</v>
       </c>
       <c r="L76" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),575.0)</f>
-        <v>575</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),576.0)</f>
+        <v>576</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -5602,24 +5638,24 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Этническое самосознание")</f>
-        <v>Этническое самосознание</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""Плавильный котел""")</f>
+        <v>"Плавильный котел"</v>
       </c>
       <c r="F77" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.0)</f>
-        <v>276</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.0)</f>
+        <v>281</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Юридические факты")</f>
-        <v>Юридические факты</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие законотворчества")</f>
+        <v>Понятие законотворчества</v>
       </c>
       <c r="L77" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),576.0)</f>
-        <v>576</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),577.0)</f>
+        <v>577</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -5642,19 +5678,25 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Межнациональные отношения")</f>
-        <v>Межнациональные отношения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мультикультурализм")</f>
+        <v>Мультикультурализм</v>
       </c>
       <c r="F78" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
-        <v>277</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),282.0)</f>
+        <v>282</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
+      <c r="K78" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Этапы законотворчества в РФ")</f>
+        <v>Этапы законотворчества в РФ</v>
+      </c>
+      <c r="L78" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),578.0)</f>
+        <v>578</v>
+      </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -5676,12 +5718,12 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Международная интеграция")</f>
-        <v>Международная интеграция</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Национализм, шовинизм, сегрегация, геноцид")</f>
+        <v>Национализм, шовинизм, сегрегация, геноцид</v>
       </c>
       <c r="F79" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
-        <v>278</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
+        <v>283</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -5710,12 +5752,12 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Международная дифференциация")</f>
-        <v>Международная дифференциация</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Межнациональные конфликты")</f>
+        <v>Межнациональные конфликты</v>
       </c>
       <c r="F80" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),279.0)</f>
-        <v>279</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),284.0)</f>
+        <v>284</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -5744,12 +5786,12 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Культурный плюрализм")</f>
-        <v>Культурный плюрализм</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Причины межнациональных конфликтов")</f>
+        <v>Причины межнациональных конфликтов</v>
       </c>
       <c r="F81" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),280.0)</f>
-        <v>280</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),285.0)</f>
+        <v>285</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -5778,12 +5820,12 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""Плавильный котел""")</f>
-        <v>"Плавильный котел"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основные принципы национальной политики РФ")</f>
+        <v>Основные принципы национальной политики РФ</v>
       </c>
       <c r="F82" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.0)</f>
-        <v>281</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
+        <v>286</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -5812,12 +5854,12 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мультикультурализм")</f>
-        <v>Мультикультурализм</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Семья как малая соц группа и как соц институт")</f>
+        <v>Семья как малая соц группа и как соц институт</v>
       </c>
       <c r="F83" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),282.0)</f>
-        <v>282</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),287.0)</f>
+        <v>287</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -5846,12 +5888,12 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Национализм, шовинизм, сегрегация, геноцид")</f>
-        <v>Национализм, шовинизм, сегрегация, геноцид</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функции семьи")</f>
+        <v>Функции семьи</v>
       </c>
       <c r="F84" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
-        <v>283</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),288.0)</f>
+        <v>288</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -5880,12 +5922,12 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Межнациональные конфликты")</f>
-        <v>Межнациональные конфликты</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Типы семьи (по составу, по распределению власти, по распределению домашних обязанностей и другие)")</f>
+        <v>Типы семьи (по составу, по распределению власти, по распределению домашних обязанностей и другие)</v>
       </c>
       <c r="F85" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),284.0)</f>
-        <v>284</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
+        <v>289</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -5914,12 +5956,12 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Причины межнациональных конфликтов")</f>
-        <v>Причины межнациональных конфликтов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие брака")</f>
+        <v>Понятие брака</v>
       </c>
       <c r="F86" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),285.0)</f>
-        <v>285</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.0)</f>
+        <v>290</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -5948,12 +5990,12 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основные принципы национальной политики РФ")</f>
-        <v>Основные принципы национальной политики РФ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гражданский, церковный, фактический брак")</f>
+        <v>Гражданский, церковный, фактический брак</v>
       </c>
       <c r="F87" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
-        <v>286</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),291.0)</f>
+        <v>291</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -5982,12 +6024,12 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Семья как малая соц группа и как соц институт")</f>
-        <v>Семья как малая соц группа и как соц институт</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Современные проблемы семьи")</f>
+        <v>Современные проблемы семьи</v>
       </c>
       <c r="F88" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),287.0)</f>
-        <v>287</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),292.0)</f>
+        <v>292</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -6016,12 +6058,12 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функции семьи")</f>
-        <v>Функции семьи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Социальный статус и статусный набор")</f>
+        <v>Социальный статус и статусный набор</v>
       </c>
       <c r="F89" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),288.0)</f>
-        <v>288</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),293.0)</f>
+        <v>293</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -6050,12 +6092,12 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Типы семьи (по составу, по распределению власти, по распределению домашних обязанностей и другие)")</f>
-        <v>Типы семьи (по составу, по распределению власти, по распределению домашних обязанностей и другие)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Компоненты социального статуса")</f>
+        <v>Компоненты социального статуса</v>
       </c>
       <c r="F90" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
-        <v>289</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),294.0)</f>
+        <v>294</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -6084,12 +6126,12 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие брака")</f>
-        <v>Понятие брака</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Виды социальных статусов")</f>
+        <v>Виды социальных статусов</v>
       </c>
       <c r="F91" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.0)</f>
-        <v>290</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
+        <v>295</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -6118,12 +6160,12 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гражданский, церковный, фактический брак")</f>
-        <v>Гражданский, церковный, фактический брак</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Статусные несоответствия")</f>
+        <v>Статусные несоответствия</v>
       </c>
       <c r="F92" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),291.0)</f>
-        <v>291</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
+        <v>296</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -6152,12 +6194,12 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Современные проблемы семьи")</f>
-        <v>Современные проблемы семьи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Социальная роль и ролевой набор")</f>
+        <v>Социальная роль и ролевой набор</v>
       </c>
       <c r="F93" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),292.0)</f>
-        <v>292</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.0)</f>
+        <v>297</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -6186,12 +6228,12 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Социальный статус и статусный набор")</f>
-        <v>Социальный статус и статусный набор</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ролевое поведение")</f>
+        <v>Ролевое поведение</v>
       </c>
       <c r="F94" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),293.0)</f>
-        <v>293</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),298.0)</f>
+        <v>298</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -6220,12 +6262,12 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Компоненты социального статуса")</f>
-        <v>Компоненты социального статуса</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ролевые конфликты")</f>
+        <v>Ролевые конфликты</v>
       </c>
       <c r="F95" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),294.0)</f>
-        <v>294</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
+        <v>299</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -6253,14 +6295,8 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Виды социальных статусов")</f>
-        <v>Виды социальных статусов</v>
-      </c>
-      <c r="F96" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
-        <v>295</v>
-      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -6287,14 +6323,8 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Статусные несоответствия")</f>
-        <v>Статусные несоответствия</v>
-      </c>
-      <c r="F97" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
-        <v>296</v>
-      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -6321,14 +6351,8 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Социальная роль и ролевой набор")</f>
-        <v>Социальная роль и ролевой набор</v>
-      </c>
-      <c r="F98" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.0)</f>
-        <v>297</v>
-      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -6355,14 +6379,8 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ролевое поведение")</f>
-        <v>Ролевое поведение</v>
-      </c>
-      <c r="F99" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),298.0)</f>
-        <v>298</v>
-      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -6389,14 +6407,8 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ролевые конфликты")</f>
-        <v>Ролевые конфликты</v>
-      </c>
-      <c r="F100" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
-        <v>299</v>
-      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>

--- a/umit_files/umit_obs.xlsx
+++ b/umit_files/umit_obs.xlsx
@@ -4121,8 +4121,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),344.0)</f>
         <v>344</v>
       </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="I45" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Права ребенка и их защита")</f>
+        <v>Права ребенка и их защита</v>
+      </c>
+      <c r="J45" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.0)</f>
+        <v>444</v>
+      </c>
       <c r="K45" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Порядок заключения трудового договора")</f>
         <v>Порядок заключения трудового договора</v>
@@ -4199,8 +4205,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),745.0)</f>
         <v>745</v>
       </c>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
+      <c r="Q46" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обмен и торговля")</f>
+        <v>Обмен и торговля</v>
+      </c>
+      <c r="R46" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),845.0)</f>
+        <v>845</v>
+      </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
@@ -6295,8 +6307,14 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="E96" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отношения между поколениями")</f>
+        <v>Отношения между поколениями</v>
+      </c>
+      <c r="F96" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1201.0)</f>
+        <v>1201</v>
+      </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -6323,8 +6341,14 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="E97" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Многообразие социальных ролей в подростковом возрасте")</f>
+        <v>Многообразие социальных ролей в подростковом возрасте</v>
+      </c>
+      <c r="F97" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1202.0)</f>
+        <v>1202</v>
+      </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -6351,8 +6375,14 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+      <c r="E98" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Социальные ценности")</f>
+        <v>Социальные ценности</v>
+      </c>
+      <c r="F98" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1203.0)</f>
+        <v>1203</v>
+      </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
